--- a/data/Data_dictionary.xlsx
+++ b/data/Data_dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FilesVC\gona-imposed-form\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CFA48B5-05CE-4918-AC60-684BEDCE0753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B244ABE-58A4-4FD1-9AB2-DCBDADAD0983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="111">
   <si>
     <t>Variable</t>
   </si>
@@ -352,7 +352,13 @@
     <t>The quotient of T3 and the geometric mean.</t>
   </si>
   <si>
-    <t>corrected SDI. A regression is conducted between the caliper-based SDI and 3D-based SDI, genearting a coefficient. cSDI is the product of coefficient and caliper-based SDI. It is the ratio of the number of flake scars on a core to its surface area.</t>
+    <t>SDIBoxTimesPointFive</t>
+  </si>
+  <si>
+    <t>corrected SDI. A regression is conducted between the caliper-based SDI and 3D-based SDI, genearting a coefficient. cSDI is the product of coefficient and caliper-based SDI.</t>
+  </si>
+  <si>
+    <t>SDI (scar density index) is the ratio of the number of flake scars on a core to its surface area. This is estimated through caliper measurement and multiplied by 0.5.</t>
   </si>
 </sst>
 </file>
@@ -954,10 +960,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56840182-B49F-41AE-BE83-C709501414FC}">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1235,7 +1241,15 @@
         <v>68</v>
       </c>
       <c r="B34" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
         <v>108</v>
+      </c>
+      <c r="B35" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_dictionary.xlsx
+++ b/data/Data_dictionary.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FilesVC\gona-imposed-form\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dwstout\Google Drive\Docs\Early Acheulean 2021\JHE Revision\Data for publication\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B244ABE-58A4-4FD1-9AB2-DCBDADAD0983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11CD1512-FBB3-4427-8984-5516450CE1A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34800" yWindow="1740" windowWidth="16950" windowHeight="13065" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="3D-cleaned-for-Cheng-080224" sheetId="1" r:id="rId1"/>
-    <sheet name="Gona_EA_for_Cheng_020824" sheetId="2" r:id="rId2"/>
+    <sheet name="3D_Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Linear_Data" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="109">
   <si>
     <t>Variable</t>
   </si>
@@ -43,15 +43,6 @@
     <t>L</t>
   </si>
   <si>
-    <t>Br1</t>
-  </si>
-  <si>
-    <t>Br2</t>
-  </si>
-  <si>
-    <t>Br3</t>
-  </si>
-  <si>
     <t>T1</t>
   </si>
   <si>
@@ -64,15 +55,6 @@
     <t>Caliper_L_GM</t>
   </si>
   <si>
-    <t>Caliper_Br1_GM</t>
-  </si>
-  <si>
-    <t>Caliper_Br2_GM</t>
-  </si>
-  <si>
-    <t>Caliper_Br3_GM</t>
-  </si>
-  <si>
     <t>Caliper_T1_GM</t>
   </si>
   <si>
@@ -124,51 +106,15 @@
     <t>FlakedVisual</t>
   </si>
   <si>
-    <t>FAC1_2</t>
-  </si>
-  <si>
-    <t>FAC2_2</t>
-  </si>
-  <si>
     <t>SABox</t>
   </si>
   <si>
-    <t>Caliper width measurement taken at 33% increments along a flake's longest axis in mm.</t>
-  </si>
-  <si>
-    <t>Caliper thickness measurement taken at 33% increments along a flake's longest axis in mm.</t>
-  </si>
-  <si>
-    <t>geometric corrected value of original length</t>
-  </si>
-  <si>
     <t>The length of max dimension of a given specimen measrued using capliper</t>
   </si>
   <si>
-    <t>geometric corrected value of original Br1</t>
-  </si>
-  <si>
-    <t>geometric corrected value of original Br2</t>
-  </si>
-  <si>
-    <t>geometric corrected value of original Br3</t>
-  </si>
-  <si>
-    <t>geometric corrected value of original T1</t>
-  </si>
-  <si>
-    <t>geometric corrected value of original T2</t>
-  </si>
-  <si>
-    <t>geometric corrected value of original T3</t>
-  </si>
-  <si>
     <t>Site</t>
   </si>
   <si>
-    <t>Locality</t>
-  </si>
-  <si>
     <t>Catalog</t>
   </si>
   <si>
@@ -181,12 +127,6 @@
     <t>Weight</t>
   </si>
   <si>
-    <t>Br</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
     <t>ScarCnt</t>
   </si>
   <si>
@@ -199,15 +139,6 @@
     <t>GM_L</t>
   </si>
   <si>
-    <t>GM_Br1</t>
-  </si>
-  <si>
-    <t>GM_Br2</t>
-  </si>
-  <si>
-    <t>GM_Br3</t>
-  </si>
-  <si>
     <t>GM_T1</t>
   </si>
   <si>
@@ -223,15 +154,6 @@
     <t>Typology</t>
   </si>
   <si>
-    <t>Contexts</t>
-  </si>
-  <si>
-    <t>FAC1_1</t>
-  </si>
-  <si>
-    <t>FAC2_1</t>
-  </si>
-  <si>
     <t>cSDI</t>
   </si>
   <si>
@@ -241,30 +163,12 @@
     <t>Catalog number</t>
   </si>
   <si>
-    <t>Locality name. One site may include multiple localities, such as DAN5_A, DAN5_S and DAN5_Main</t>
-  </si>
-  <si>
     <t>Flaked Area Index. The precentage of flaked area on a stone artifact based on visual estimation. 0 means not flaked at all, and 100 means the whole artifact is covered by scars.</t>
   </si>
   <si>
-    <t>The inferred blank of a given stone artifact, including cobble, flake and indet</t>
-  </si>
-  <si>
     <t>Weight measured through scale. The unit is gram</t>
   </si>
   <si>
-    <t>The number of scars presreved on a given stone artifact</t>
-  </si>
-  <si>
-    <t>The average length of scar of all scars presreved on a given stone artifact</t>
-  </si>
-  <si>
-    <t>Technological Mode, including Mode 1 (Oldowan technology) and Mode 2 (Acheulean technology). Acheulean contexts can include both Mode 1 and Mode 2 artifacts.</t>
-  </si>
-  <si>
-    <t>The archaeological context of the locality integrating dating results, including Oldowan and Acheulean.</t>
-  </si>
-  <si>
     <t>The binary category indicating if a given artifact is flaked or unmodified.</t>
   </si>
   <si>
@@ -286,9 +190,6 @@
     <t>Artifact thickness as measured by Artifact3_D</t>
   </si>
   <si>
-    <t>Surface area using the box method. The formula is SA = W1T1 + 2(.33L * W1) + 2(.33L * T1) + 2(.33L * W2) + 2(.33L * T2) + 2(.33L * W3) + 2(.33L * T3) + W3T3</t>
-  </si>
-  <si>
     <t>Individual PC1 value extracted from GMM-based principle component analysis.</t>
   </si>
   <si>
@@ -322,12 +223,6 @@
     <t>The length of the second-longest axis that is orthogonal to the the L.</t>
   </si>
   <si>
-    <t>The length of the third-longest axis that is orthogonal to the both Br and L.</t>
-  </si>
-  <si>
-    <t>The type of stone artifacts, including Oldowan, core, handaxe, pick, knife, and large flake</t>
-  </si>
-  <si>
     <t>Geometric mean, which is the nth root of the product of all n variables. It is calculated to partition variation in shape from variation in size</t>
   </si>
   <si>
@@ -352,13 +247,112 @@
     <t>The quotient of T3 and the geometric mean.</t>
   </si>
   <si>
-    <t>SDIBoxTimesPointFive</t>
-  </si>
-  <si>
-    <t>corrected SDI. A regression is conducted between the caliper-based SDI and 3D-based SDI, genearting a coefficient. cSDI is the product of coefficient and caliper-based SDI.</t>
-  </si>
-  <si>
-    <t>SDI (scar density index) is the ratio of the number of flake scars on a core to its surface area. This is estimated through caliper measurement and multiplied by 0.5.</t>
+    <t>The length of max dimension of a given specimen measured using capliper</t>
+  </si>
+  <si>
+    <t>W1</t>
+  </si>
+  <si>
+    <t>W2</t>
+  </si>
+  <si>
+    <t>W3</t>
+  </si>
+  <si>
+    <t>Caliper width measurement taken at 25% of Length, with piece oriented such that W1&gt;W3</t>
+  </si>
+  <si>
+    <t>Caliper width measurement taken at 50% of Length, with piece oriented such that W1&gt;W3</t>
+  </si>
+  <si>
+    <t>Caliper width measurement taken at 75% of Length, with piece oriented such that W1&gt;W3</t>
+  </si>
+  <si>
+    <t>Caliper thickness measurement taken at 25% of Length, with piece oriented such that W1&gt;W3</t>
+  </si>
+  <si>
+    <t>Caliper thickness measurement taken at 50% of Length, with piece oriented such that W1&gt;W3</t>
+  </si>
+  <si>
+    <t>Caliper thickness measurement taken at 75% of Length, with piece oriented such that W1&gt;W3</t>
+  </si>
+  <si>
+    <t>The number of scars preserved on a given stone artifact</t>
+  </si>
+  <si>
+    <t>Surface area using the box method. The formula is SA = 2(L*Wm) + 2(L*Tm) + 2(Wm*Tm)</t>
+  </si>
+  <si>
+    <t>PC1_linear</t>
+  </si>
+  <si>
+    <t>PC2_linear</t>
+  </si>
+  <si>
+    <t>SDIc</t>
+  </si>
+  <si>
+    <t>SDI calculated using SABox multiplied by 0.5 as the surface area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The inferred blank of a given stone artifact, including cobble, flake and indeterminate (indet) </t>
+  </si>
+  <si>
+    <t>Wm</t>
+  </si>
+  <si>
+    <t>Tm</t>
+  </si>
+  <si>
+    <t>The length of the third-longest axis that is orthogonal to the both W and L.</t>
+  </si>
+  <si>
+    <t>The mean length of all scars preserved on a given stone artifact</t>
+  </si>
+  <si>
+    <t>The quotient of W1 and the geometric mean.</t>
+  </si>
+  <si>
+    <t>The quotient of W2 and the geometric mean.</t>
+  </si>
+  <si>
+    <t>The quotient of W3 and the geometric mean.</t>
+  </si>
+  <si>
+    <t>Technological Mode, including Mode 1 and Mode 2. Acheulean contexts can include both Mode 1 and Mode 2 artifacts.</t>
+  </si>
+  <si>
+    <t>The type of stone artifacts, including, core, handaxe, pick, knife, and unmodified large flake</t>
+  </si>
+  <si>
+    <t>PC_1</t>
+  </si>
+  <si>
+    <t>PC_2</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>The Industry assignment of the assemblage, including Oldowan and Acheulean.</t>
+  </si>
+  <si>
+    <t>Caliper_W1_GM</t>
+  </si>
+  <si>
+    <t>Caliper_W2_GM</t>
+  </si>
+  <si>
+    <t>Caliper_W3_GM</t>
+  </si>
+  <si>
+    <t>GM_W1</t>
+  </si>
+  <si>
+    <t>GM_W2</t>
+  </si>
+  <si>
+    <t>GM_W3</t>
   </si>
 </sst>
 </file>
@@ -676,19 +670,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.06640625" customWidth="1"/>
-    <col min="2" max="2" width="100.06640625" customWidth="1"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="100" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -696,7 +690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -704,252 +698,260 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+      <c r="B8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+      <c r="B9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+      <c r="B10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+      <c r="B11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+      <c r="B15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
+      <c r="B16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
+      <c r="B17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>13</v>
       </c>
-      <c r="B13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>14</v>
       </c>
-      <c r="B14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>15</v>
       </c>
-      <c r="B15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>16</v>
       </c>
-      <c r="B16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>17</v>
       </c>
-      <c r="B17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>18</v>
       </c>
-      <c r="B18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>19</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="B34" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -960,19 +962,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56840182-B49F-41AE-BE83-C709501414FC}">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.73046875" customWidth="1"/>
-    <col min="2" max="2" width="153.1328125" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="153.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -980,276 +982,260 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
         <v>45</v>
       </c>
-      <c r="B2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
         <v>46</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
         <v>47</v>
       </c>
-      <c r="B4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" t="s">
         <v>48</v>
       </c>
-      <c r="B5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32" t="s">
         <v>49</v>
       </c>
-      <c r="B6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
-        <v>63</v>
-      </c>
-      <c r="B27" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
-        <v>64</v>
-      </c>
-      <c r="B28" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
-        <v>65</v>
-      </c>
-      <c r="B29" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
-        <v>66</v>
-      </c>
-      <c r="B32" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="B33" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
-        <v>68</v>
-      </c>
-      <c r="B34" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
-        <v>108</v>
-      </c>
-      <c r="B35" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
